--- a/Sparqla/Sqarqla_Retail_data2.xlsx
+++ b/Sparqla/Sqarqla_Retail_data2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\sqrqlas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" firstSheet="20" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -3534,7 +3534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -3696,7 +3696,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -23983,7 +23983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
